--- a/forecasted_accidents_2022_sarima.xlsx
+++ b/forecasted_accidents_2022_sarima.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,11 @@
           <t>Predicted_Accident_Count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Test_R2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -462,7 +467,10 @@
         <v>2400</v>
       </c>
       <c r="C2" t="n">
-        <v>2337.817932208335</v>
+        <v>2303.411340700022</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +481,10 @@
         <v>1703</v>
       </c>
       <c r="C3" t="n">
-        <v>1831.335493925861</v>
+        <v>1738.874187979081</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +495,10 @@
         <v>1836</v>
       </c>
       <c r="C4" t="n">
-        <v>1936.316490796359</v>
+        <v>1883.42992950067</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +509,10 @@
         <v>2991</v>
       </c>
       <c r="C5" t="n">
-        <v>2560.824701914509</v>
+        <v>2530.849379105675</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +523,10 @@
         <v>1761</v>
       </c>
       <c r="C6" t="n">
-        <v>1704.843453047395</v>
+        <v>1611.454359605747</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +537,10 @@
         <v>1798</v>
       </c>
       <c r="C7" t="n">
-        <v>1614.664162257679</v>
+        <v>1503.190171590093</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
     <row r="8">
@@ -528,7 +551,10 @@
         <v>1800</v>
       </c>
       <c r="C8" t="n">
-        <v>1847.307788061776</v>
+        <v>1749.955282649249</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
     <row r="9">
@@ -539,7 +565,10 @@
         <v>1611</v>
       </c>
       <c r="C9" t="n">
-        <v>1705.740720892073</v>
+        <v>1597.928766390339</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +579,10 @@
         <v>1740</v>
       </c>
       <c r="C10" t="n">
-        <v>1744.952618369724</v>
+        <v>1627.472362145304</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +593,10 @@
         <v>1623</v>
       </c>
       <c r="C11" t="n">
-        <v>1872.318550490813</v>
+        <v>1766.353797660107</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
     <row r="12">
@@ -572,7 +607,10 @@
         <v>1655</v>
       </c>
       <c r="C12" t="n">
-        <v>1832.44069373147</v>
+        <v>1721.13923495625</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
     <row r="13">
@@ -583,7 +621,10 @@
         <v>2923</v>
       </c>
       <c r="C13" t="n">
-        <v>2737.566493703509</v>
+        <v>2685.140258679615</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8419377194591875</v>
       </c>
     </row>
   </sheetData>
